--- a/数据整理/stocks/A股/创业板/300673-佩蒂股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300673-佩蒂股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009486</t>
+          <t>164403</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>光大保德信瑞和混合A</t>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>72.94</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1837</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009487</t>
+          <t>000663</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>光大保德信瑞和混合C</t>
+          <t>国投瑞银美丽中国灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>72.94</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>164403</t>
+          <t>005970</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+          <t>国泰消费优选股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000663</t>
+          <t>009486</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
+          <t>光大保德信瑞和混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>93.04</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.17</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005970</t>
+          <t>009487</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰消费优选股票</t>
+          <t>光大保德信瑞和混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -716,15 +796,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.79</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>8.14</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4453</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>164510</t>
+          <t>005970</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富兰克林国海恒利债券（LOF）C</t>
+          <t>国泰消费优选股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005970</t>
+          <t>260115</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰消费优选股票</t>
+          <t>景顺长城中小盘混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -790,26 +900,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>260115</t>
+          <t>400023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城中小盘混合</t>
+          <t>东方多策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -818,25 +938,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>400023</t>
+          <t>002068</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东方多策略灵活配置混合A</t>
+          <t>东方多策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>81.60</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.38</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002068</t>
+          <t>164510</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东方多策略灵活配置混合C</t>
+          <t>富兰克林国海恒利债券（LOF）C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>81.60</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300673-佩蒂股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300673-佩蒂股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6109</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6109</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4536</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300673-佩蒂股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300673-佩蒂股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1372,4 +1373,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4936</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300673-佩蒂股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300673-佩蒂股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1467,4 +1468,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300673-佩蒂股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300673-佩蒂股份.xlsx
@@ -1492,12 +1492,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300673-佩蒂股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300673-佩蒂股份.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,281 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>164403</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1837</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000663</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1679</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.99</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005970</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰消费优选股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1404</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009486</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>光大保德信瑞和混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>72.94</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0942</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>260115</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景顺长城中小盘混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.04</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0638</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009487</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>光大保德信瑞和混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>72.94</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -738,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,215 +615,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>64.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.14</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4453</t>
+          <t>0.4936</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005970</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰消费优选股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.31</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0752</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>260115</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城中小盘混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0608</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>400023</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东方多策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>81.60</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0164</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002068</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方多策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>81.60</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0155</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>164510</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富兰克林国海恒利债券（LOF）C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1382,7 +1008,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1443,25 +1069,215 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>64.14</t>
+          <t>94.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>8.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4936</t>
+          <t>0.4453</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>164510</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富兰克林国海恒利债券（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1476,96 +1292,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1837</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.99</v>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.62</v>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.65</v>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300673-佩蒂股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300673-佩蒂股份.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0.49</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.99</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.62</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -549,6 +566,744 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2814</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银农业产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2345</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2048</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014781</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信兴衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>46.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015056</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>百嘉百盛混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>62.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014782</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信兴衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>46.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>64.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信澳量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信澳量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>016352</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -642,7 +1397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1002,7 +1757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1286,7 +2041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300673-佩蒂股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300673-佩蒂股份.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>1.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>0.49</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.99</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.62</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -566,6 +583,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银农业产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2726</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005095</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005096</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1303,7 +1566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1397,7 +1660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1757,7 +2020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2041,7 +2304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
